--- a/resultados/pretratamiento-tablas-control/pretrat-all-elo-facil-dificultad.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-all-elo-facil-dificultad.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="1280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="1281">
   <si>
     <t>Pretrat</t>
   </si>
@@ -121,7 +121,7 @@
     <t>47.253 (758)</t>
   </si>
   <si>
-    <t>9.541 (758)</t>
+    <t>9.534 (758)</t>
   </si>
   <si>
     <t>9.216 (758)</t>
@@ -175,7 +175,7 @@
     <t>47.682 (509)</t>
   </si>
   <si>
-    <t>9.495 (509)</t>
+    <t>9.497 (509)</t>
   </si>
   <si>
     <t>8.864 (509)</t>
@@ -334,7 +334,7 @@
     <t>47.116 (603)</t>
   </si>
   <si>
-    <t>9.514 (603)</t>
+    <t>9.509 (603)</t>
   </si>
   <si>
     <t>9.179 (603)</t>
@@ -388,7 +388,7 @@
     <t>47.242 (604)</t>
   </si>
   <si>
-    <t>9.654 (604)</t>
+    <t>9.652 (604)</t>
   </si>
   <si>
     <t>9.022 (604)</t>
@@ -547,7 +547,7 @@
     <t>47.874 (486)</t>
   </si>
   <si>
-    <t>9.414 (486)</t>
+    <t>9.407 (486)</t>
   </si>
   <si>
     <t>9.167 (486)</t>
@@ -601,7 +601,7 @@
     <t>46.495 (632)</t>
   </si>
   <si>
-    <t>9.793 (632)</t>
+    <t>9.791 (632)</t>
   </si>
   <si>
     <t>9.109 (632)</t>
@@ -763,7 +763,7 @@
     <t>47.952 (373)</t>
   </si>
   <si>
-    <t>9.456 (373)</t>
+    <t>9.448 (373)</t>
   </si>
   <si>
     <t>9.188 (373)</t>
@@ -817,7 +817,7 @@
     <t>46.431 (662)</t>
   </si>
   <si>
-    <t>9.718 (662)</t>
+    <t>9.716 (662)</t>
   </si>
   <si>
     <t>9.085 (662)</t>
@@ -976,7 +976,7 @@
     <t>48.43 (567)</t>
   </si>
   <si>
-    <t>9.335 (567)</t>
+    <t>9.332 (567)</t>
   </si>
   <si>
     <t>8.825 (567)</t>
@@ -1189,7 +1189,7 @@
     <t>48.645 (406)</t>
   </si>
   <si>
-    <t>9.291 (406)</t>
+    <t>9.286 (406)</t>
   </si>
   <si>
     <t>8.749 (406)</t>
@@ -1456,7 +1456,7 @@
     <t>47.748 (602)</t>
   </si>
   <si>
-    <t>9.435 (602)</t>
+    <t>9.43 (602)</t>
   </si>
   <si>
     <t>8.759 (602)</t>
@@ -1510,7 +1510,7 @@
     <t>48.376 (311)</t>
   </si>
   <si>
-    <t>9.203 (311)</t>
+    <t>9.206 (311)</t>
   </si>
   <si>
     <t>8.492 (311)</t>
@@ -1672,7 +1672,7 @@
     <t>47.406 (566)</t>
   </si>
   <si>
-    <t>9.479 (566)</t>
+    <t>9.473 (566)</t>
   </si>
   <si>
     <t>8.912 (566)</t>
@@ -1726,7 +1726,7 @@
     <t>49.0 (400)</t>
   </si>
   <si>
-    <t>9.182 (400)</t>
+    <t>9.185 (400)</t>
   </si>
   <si>
     <t>8.388 (400)</t>
@@ -1888,7 +1888,7 @@
     <t>48.693 (423)</t>
   </si>
   <si>
-    <t>9.076 (423)</t>
+    <t>9.073 (423)</t>
   </si>
   <si>
     <t>8.319 (423)</t>
@@ -1942,7 +1942,7 @@
     <t>48.499 (563)</t>
   </si>
   <si>
-    <t>9.14 (563)</t>
+    <t>9.135 (563)</t>
   </si>
   <si>
     <t>8.291 (563)</t>
@@ -1993,7 +1993,7 @@
     <t>51.514 (177)</t>
   </si>
   <si>
-    <t>8.661 (177)</t>
+    <t>8.667 (177)</t>
   </si>
   <si>
     <t>7.678 (177)</t>
@@ -2098,7 +2098,7 @@
     <t>48.253 (277)</t>
   </si>
   <si>
-    <t>9.238 (277)</t>
+    <t>9.235 (277)</t>
   </si>
   <si>
     <t>8.39 (277)</t>
@@ -2152,7 +2152,7 @@
     <t>48.87 (571)</t>
   </si>
   <si>
-    <t>9.032 (571)</t>
+    <t>9.028 (571)</t>
   </si>
   <si>
     <t>8.194 (571)</t>
@@ -2365,7 +2365,7 @@
     <t>48.923 (520)</t>
   </si>
   <si>
-    <t>8.994 (520)</t>
+    <t>8.992 (520)</t>
   </si>
   <si>
     <t>8.287 (520)</t>
@@ -2419,7 +2419,7 @@
     <t>48.657 (370)</t>
   </si>
   <si>
-    <t>9.084 (370)</t>
+    <t>9.076 (370)</t>
   </si>
   <si>
     <t>7.946 (370)</t>
@@ -2473,7 +2473,7 @@
     <t>52.39 (100)</t>
   </si>
   <si>
-    <t>8.64 (100)</t>
+    <t>8.65 (100)</t>
   </si>
   <si>
     <t>8.11 (100)</t>
@@ -2629,7 +2629,7 @@
     <t>48.903 (432)</t>
   </si>
   <si>
-    <t>9.049 (432)</t>
+    <t>9.046 (432)</t>
   </si>
   <si>
     <t>8.231 (432)</t>
@@ -2683,7 +2683,7 @@
     <t>48.289 (456)</t>
   </si>
   <si>
-    <t>9.072 (456)</t>
+    <t>9.068 (456)</t>
   </si>
   <si>
     <t>8.219 (456)</t>
@@ -2845,7 +2845,7 @@
     <t>49.04 (301)</t>
   </si>
   <si>
-    <t>8.601 (301)</t>
+    <t>8.598 (301)</t>
   </si>
   <si>
     <t>7.748 (301)</t>
@@ -2899,7 +2899,7 @@
     <t>49.79 (542)</t>
   </si>
   <si>
-    <t>8.766 (542)</t>
+    <t>8.764 (542)</t>
   </si>
   <si>
     <t>7.79 (542)</t>
@@ -2953,7 +2953,7 @@
     <t>50.813 (235)</t>
   </si>
   <si>
-    <t>8.847 (235)</t>
+    <t>8.838 (235)</t>
   </si>
   <si>
     <t>7.6 (235)</t>
@@ -3007,7 +3007,7 @@
     <t>61.571 (14)</t>
   </si>
   <si>
-    <t>6.643 (14)</t>
+    <t>6.714 (14)</t>
   </si>
   <si>
     <t>6.929 (14)</t>
@@ -3112,7 +3112,7 @@
     <t>49.38 (500)</t>
   </si>
   <si>
-    <t>8.712 (500)</t>
+    <t>8.706 (500)</t>
   </si>
   <si>
     <t>7.73 (500)</t>
@@ -3421,7 +3421,7 @@
     <t>49.152 (408)</t>
   </si>
   <si>
-    <t>8.934 (408)</t>
+    <t>8.924 (408)</t>
   </si>
   <si>
     <t>7.686 (408)</t>
@@ -3526,6 +3526,9 @@
     <t>57.929 (14)</t>
   </si>
   <si>
+    <t>9.143 (14)</t>
+  </si>
+  <si>
     <t>7.214 (14)</t>
   </si>
   <si>
@@ -3682,7 +3685,7 @@
     <t>49.137 (452)</t>
   </si>
   <si>
-    <t>8.712 (452)</t>
+    <t>8.706 (452)</t>
   </si>
   <si>
     <t>7.768 (452)</t>
@@ -3736,7 +3739,7 @@
     <t>50.242 (240)</t>
   </si>
   <si>
-    <t>8.867 (240)</t>
+    <t>8.862 (240)</t>
   </si>
   <si>
     <t>7.812 (240)</t>
@@ -3790,7 +3793,7 @@
     <t>53.857 (49)</t>
   </si>
   <si>
-    <t>8.102 (49)</t>
+    <t>8.122 (49)</t>
   </si>
   <si>
     <t>6.959 (49)</t>
@@ -4302,10 +4305,10 @@
         <v>0.572</v>
       </c>
       <c r="I2">
-        <v>0.361</v>
+        <v>0.331</v>
       </c>
       <c r="J2">
-        <v>0.718</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4334,10 +4337,10 @@
         <v>1.69</v>
       </c>
       <c r="I3">
-        <v>1.072</v>
+        <v>0.993</v>
       </c>
       <c r="J3">
-        <v>0.284</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4366,10 +4369,10 @@
         <v>-0.056</v>
       </c>
       <c r="I4">
-        <v>-0.03</v>
+        <v>-0.028</v>
       </c>
       <c r="J4">
-        <v>0.976</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4430,10 +4433,10 @@
         <v>1.061</v>
       </c>
       <c r="I6">
-        <v>0.536</v>
+        <v>0.584</v>
       </c>
       <c r="J6">
-        <v>0.592</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4462,10 +4465,10 @@
         <v>1.098</v>
       </c>
       <c r="I7">
-        <v>0.548</v>
+        <v>0.587</v>
       </c>
       <c r="J7">
-        <v>0.584</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4491,13 +4494,13 @@
         <v>0.039</v>
       </c>
       <c r="H8">
-        <v>-0.124</v>
+        <v>-0.1</v>
       </c>
       <c r="I8">
-        <v>-0.202</v>
+        <v>-0.155</v>
       </c>
       <c r="J8">
-        <v>0.84</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4526,10 +4529,10 @@
         <v>-0.453</v>
       </c>
       <c r="I9">
-        <v>-0.738</v>
+        <v>-0.796</v>
       </c>
       <c r="J9">
-        <v>0.461</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4590,10 +4593,10 @@
         <v>-0.314</v>
       </c>
       <c r="I11">
-        <v>-0.426</v>
+        <v>-0.436</v>
       </c>
       <c r="J11">
-        <v>0.67</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4622,10 +4625,10 @@
         <v>-0.172</v>
       </c>
       <c r="I12">
-        <v>-0.23</v>
+        <v>-0.247</v>
       </c>
       <c r="J12">
-        <v>0.8179999999999999</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4654,10 +4657,10 @@
         <v>-0.458</v>
       </c>
       <c r="I13">
-        <v>-0.61</v>
+        <v>-0.63</v>
       </c>
       <c r="J13">
-        <v>0.542</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4686,10 +4689,10 @@
         <v>-0.002</v>
       </c>
       <c r="I14">
-        <v>-0.152</v>
+        <v>-0.136</v>
       </c>
       <c r="J14">
-        <v>0.879</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4718,10 +4721,10 @@
         <v>0.004</v>
       </c>
       <c r="I15">
-        <v>0.297</v>
+        <v>0.251</v>
       </c>
       <c r="J15">
-        <v>0.767</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4750,10 +4753,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="I16">
-        <v>0.6850000000000001</v>
+        <v>0.677</v>
       </c>
       <c r="J16">
-        <v>0.493</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4782,10 +4785,10 @@
         <v>0.015</v>
       </c>
       <c r="I17">
-        <v>1.074</v>
+        <v>1.133</v>
       </c>
       <c r="J17">
-        <v>0.283</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4814,10 +4817,10 @@
         <v>0.02</v>
       </c>
       <c r="I18">
-        <v>1.369</v>
+        <v>1.235</v>
       </c>
       <c r="J18">
-        <v>0.171</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4846,10 +4849,10 @@
         <v>-0.004</v>
       </c>
       <c r="I19">
-        <v>-0.237</v>
+        <v>-0.205</v>
       </c>
       <c r="J19">
-        <v>0.8129999999999999</v>
+        <v>0.837</v>
       </c>
     </row>
   </sheetData>
@@ -4935,10 +4938,10 @@
         <v>-1.171</v>
       </c>
       <c r="I2">
-        <v>-0.676</v>
+        <v>-0.587</v>
       </c>
       <c r="J2">
-        <v>0.499</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4967,10 +4970,10 @@
         <v>-0.513</v>
       </c>
       <c r="I3">
-        <v>-0.299</v>
+        <v>-0.31</v>
       </c>
       <c r="J3">
-        <v>0.765</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4999,10 +5002,10 @@
         <v>-0.96</v>
       </c>
       <c r="I4">
-        <v>-0.481</v>
+        <v>-0.49</v>
       </c>
       <c r="J4">
-        <v>0.631</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5031,10 +5034,10 @@
         <v>-2.828</v>
       </c>
       <c r="I5">
-        <v>-1.36</v>
+        <v>-1.361</v>
       </c>
       <c r="J5">
-        <v>0.174</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5063,10 +5066,10 @@
         <v>-0.946</v>
       </c>
       <c r="I6">
-        <v>-0.443</v>
+        <v>-0.475</v>
       </c>
       <c r="J6">
-        <v>0.658</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5095,10 +5098,10 @@
         <v>1.166</v>
       </c>
       <c r="I7">
-        <v>0.534</v>
+        <v>0.481</v>
       </c>
       <c r="J7">
-        <v>0.594</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5124,13 +5127,13 @@
         <v>0.038</v>
       </c>
       <c r="H8">
-        <v>0.651</v>
+        <v>0.656</v>
       </c>
       <c r="I8">
-        <v>0.986</v>
+        <v>0.904</v>
       </c>
       <c r="J8">
-        <v>0.324</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5159,10 +5162,10 @@
         <v>0.293</v>
       </c>
       <c r="I9">
-        <v>0.461</v>
+        <v>0.477</v>
       </c>
       <c r="J9">
-        <v>0.645</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5191,10 +5194,10 @@
         <v>0.208</v>
       </c>
       <c r="I10">
-        <v>0.276</v>
+        <v>0.274</v>
       </c>
       <c r="J10">
-        <v>0.782</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5223,10 +5226,10 @@
         <v>0.457</v>
       </c>
       <c r="I11">
-        <v>0.588</v>
+        <v>0.609</v>
       </c>
       <c r="J11">
-        <v>0.5570000000000001</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5255,10 +5258,10 @@
         <v>0.469</v>
       </c>
       <c r="I12">
-        <v>0.583</v>
+        <v>0.595</v>
       </c>
       <c r="J12">
-        <v>0.5600000000000001</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5287,10 +5290,10 @@
         <v>-0.289</v>
       </c>
       <c r="I13">
-        <v>-0.354</v>
+        <v>-0.325</v>
       </c>
       <c r="J13">
-        <v>0.724</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5319,10 +5322,10 @@
         <v>0.001</v>
       </c>
       <c r="I14">
-        <v>0.047</v>
+        <v>0.051</v>
       </c>
       <c r="J14">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5351,10 +5354,10 @@
         <v>-0.002</v>
       </c>
       <c r="I15">
-        <v>-0.164</v>
+        <v>-0.167</v>
       </c>
       <c r="J15">
-        <v>0.87</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5383,10 +5386,10 @@
         <v>-0.007</v>
       </c>
       <c r="I16">
-        <v>-0.508</v>
+        <v>-0.499</v>
       </c>
       <c r="J16">
-        <v>0.611</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5415,10 +5418,10 @@
         <v>0.017</v>
       </c>
       <c r="I17">
-        <v>1.144</v>
+        <v>0.991</v>
       </c>
       <c r="J17">
-        <v>0.253</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5447,10 +5450,10 @@
         <v>0.019</v>
       </c>
       <c r="I18">
-        <v>1.182</v>
+        <v>1.157</v>
       </c>
       <c r="J18">
-        <v>0.237</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5479,10 +5482,10 @@
         <v>0.02</v>
       </c>
       <c r="I19">
-        <v>1.227</v>
+        <v>1.16</v>
       </c>
       <c r="J19">
-        <v>0.22</v>
+        <v>0.246</v>
       </c>
     </row>
   </sheetData>
@@ -5575,10 +5578,10 @@
         <v>-0.513</v>
       </c>
       <c r="J2">
-        <v>-0.258</v>
+        <v>-0.213</v>
       </c>
       <c r="K2">
-        <v>0.796</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5610,10 +5613,10 @@
         <v>0.8179999999999999</v>
       </c>
       <c r="J3">
-        <v>0.417</v>
+        <v>0.418</v>
       </c>
       <c r="K3">
-        <v>0.677</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5645,10 +5648,10 @@
         <v>0.705</v>
       </c>
       <c r="J4">
-        <v>0.308</v>
+        <v>0.319</v>
       </c>
       <c r="K4">
-        <v>0.758</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5680,10 +5683,10 @@
         <v>-1.437</v>
       </c>
       <c r="J5">
-        <v>-0.603</v>
+        <v>-0.6870000000000001</v>
       </c>
       <c r="K5">
-        <v>0.547</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5715,10 +5718,10 @@
         <v>-1.934</v>
       </c>
       <c r="J6">
-        <v>-0.792</v>
+        <v>-0.885</v>
       </c>
       <c r="K6">
-        <v>0.428</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5750,10 +5753,10 @@
         <v>0.276</v>
       </c>
       <c r="J7">
-        <v>0.111</v>
+        <v>0.094</v>
       </c>
       <c r="K7">
-        <v>0.912</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5782,13 +5785,13 @@
         <v>0.029</v>
       </c>
       <c r="I8">
-        <v>0.574</v>
+        <v>0.572</v>
       </c>
       <c r="J8">
-        <v>0.759</v>
+        <v>0.659</v>
       </c>
       <c r="K8">
-        <v>0.448</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5823,7 +5826,7 @@
         <v>-0.237</v>
       </c>
       <c r="K9">
-        <v>0.8129999999999999</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5855,10 +5858,10 @@
         <v>-0.554</v>
       </c>
       <c r="J10">
-        <v>-0.642</v>
+        <v>-0.628</v>
       </c>
       <c r="K10">
-        <v>0.521</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5890,10 +5893,10 @@
         <v>0.257</v>
       </c>
       <c r="J11">
-        <v>0.288</v>
+        <v>0.341</v>
       </c>
       <c r="K11">
-        <v>0.773</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5925,10 +5928,10 @@
         <v>0.718</v>
       </c>
       <c r="J12">
-        <v>0.779</v>
+        <v>0.755</v>
       </c>
       <c r="K12">
-        <v>0.436</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5960,10 +5963,10 @@
         <v>0.11</v>
       </c>
       <c r="J13">
-        <v>0.118</v>
+        <v>0.1</v>
       </c>
       <c r="K13">
-        <v>0.906</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5995,10 +5998,10 @@
         <v>0.002</v>
       </c>
       <c r="J14">
-        <v>0.109</v>
+        <v>0.115</v>
       </c>
       <c r="K14">
-        <v>0.913</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6030,10 +6033,10 @@
         <v>0.005</v>
       </c>
       <c r="J15">
-        <v>0.324</v>
+        <v>0.335</v>
       </c>
       <c r="K15">
-        <v>0.746</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6065,10 +6068,10 @@
         <v>-0.006</v>
       </c>
       <c r="J16">
-        <v>-0.407</v>
+        <v>-0.399</v>
       </c>
       <c r="K16">
-        <v>0.6840000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6100,10 +6103,10 @@
         <v>0.017</v>
       </c>
       <c r="J17">
-        <v>1.011</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="K17">
-        <v>0.312</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6135,10 +6138,10 @@
         <v>0.017</v>
       </c>
       <c r="J18">
-        <v>0.923</v>
+        <v>1.009</v>
       </c>
       <c r="K18">
-        <v>0.356</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6170,10 +6173,10 @@
         <v>0.012</v>
       </c>
       <c r="J19">
-        <v>0.658</v>
+        <v>0.662</v>
       </c>
       <c r="K19">
-        <v>0.511</v>
+        <v>0.508</v>
       </c>
     </row>
   </sheetData>
@@ -6266,10 +6269,10 @@
         <v>-0.595</v>
       </c>
       <c r="J2">
-        <v>-0.256</v>
+        <v>-0.21</v>
       </c>
       <c r="K2">
-        <v>0.798</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -6301,10 +6304,10 @@
         <v>0.954</v>
       </c>
       <c r="J3">
-        <v>0.416</v>
+        <v>0.407</v>
       </c>
       <c r="K3">
-        <v>0.678</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -6336,10 +6339,10 @@
         <v>1.159</v>
       </c>
       <c r="J4">
-        <v>0.433</v>
+        <v>0.46</v>
       </c>
       <c r="K4">
-        <v>0.665</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -6371,10 +6374,10 @@
         <v>-2.04</v>
       </c>
       <c r="J5">
-        <v>-0.732</v>
+        <v>-0.762</v>
       </c>
       <c r="K5">
-        <v>0.464</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6406,10 +6409,10 @@
         <v>-3.123</v>
       </c>
       <c r="J6">
-        <v>-1.094</v>
+        <v>-1.144</v>
       </c>
       <c r="K6">
-        <v>0.274</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6441,10 +6444,10 @@
         <v>0.165</v>
       </c>
       <c r="J7">
-        <v>0.056</v>
+        <v>0.048</v>
       </c>
       <c r="K7">
-        <v>0.955</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6473,13 +6476,13 @@
         <v>0.022</v>
       </c>
       <c r="I8">
-        <v>0.791</v>
+        <v>0.787</v>
       </c>
       <c r="J8">
-        <v>0.895</v>
+        <v>0.751</v>
       </c>
       <c r="K8">
-        <v>0.371</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6511,10 +6514,10 @@
         <v>-0.314</v>
       </c>
       <c r="J9">
-        <v>-0.369</v>
+        <v>-0.372</v>
       </c>
       <c r="K9">
-        <v>0.712</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6546,10 +6549,10 @@
         <v>-0.842</v>
       </c>
       <c r="J10">
-        <v>-0.833</v>
+        <v>-0.841</v>
       </c>
       <c r="K10">
-        <v>0.405</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6581,10 +6584,10 @@
         <v>0.392</v>
       </c>
       <c r="J11">
-        <v>0.377</v>
+        <v>0.406</v>
       </c>
       <c r="K11">
-        <v>0.706</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6616,10 +6619,10 @@
         <v>1.098</v>
       </c>
       <c r="J12">
-        <v>1.018</v>
+        <v>0.968</v>
       </c>
       <c r="K12">
-        <v>0.309</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6651,10 +6654,10 @@
         <v>0.178</v>
       </c>
       <c r="J13">
-        <v>0.163</v>
+        <v>0.136</v>
       </c>
       <c r="K13">
-        <v>0.871</v>
+        <v>0.892</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6686,10 +6689,10 @@
         <v>0.002</v>
       </c>
       <c r="J14">
-        <v>0.091</v>
+        <v>0.102</v>
       </c>
       <c r="K14">
-        <v>0.927</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6721,10 +6724,10 @@
         <v>0.008</v>
       </c>
       <c r="J15">
-        <v>0.463</v>
+        <v>0.53</v>
       </c>
       <c r="K15">
-        <v>0.643</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6756,10 +6759,10 @@
         <v>-0.002</v>
       </c>
       <c r="J16">
-        <v>-0.116</v>
+        <v>-0.115</v>
       </c>
       <c r="K16">
-        <v>0.907</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6791,10 +6794,10 @@
         <v>0.017</v>
       </c>
       <c r="J17">
-        <v>0.842</v>
+        <v>0.787</v>
       </c>
       <c r="K17">
-        <v>0.4</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6826,10 +6829,10 @@
         <v>0.022</v>
       </c>
       <c r="J18">
-        <v>1.011</v>
+        <v>1.121</v>
       </c>
       <c r="K18">
-        <v>0.312</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6861,10 +6864,10 @@
         <v>0.002</v>
       </c>
       <c r="J19">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="K19">
-        <v>0.912</v>
+        <v>0.908</v>
       </c>
     </row>
   </sheetData>
@@ -6950,10 +6953,10 @@
         <v>-1.702</v>
       </c>
       <c r="I2">
-        <v>-1.181</v>
+        <v>-0.996</v>
       </c>
       <c r="J2">
-        <v>0.238</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6982,10 +6985,10 @@
         <v>-1.272</v>
       </c>
       <c r="I3">
-        <v>-0.904</v>
+        <v>-0.896</v>
       </c>
       <c r="J3">
-        <v>0.366</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7014,10 +7017,10 @@
         <v>-1.134</v>
       </c>
       <c r="I4">
-        <v>-0.7</v>
+        <v>-0.607</v>
       </c>
       <c r="J4">
-        <v>0.484</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7046,10 +7049,10 @@
         <v>0.988</v>
       </c>
       <c r="I5">
-        <v>0.589</v>
+        <v>0.572</v>
       </c>
       <c r="J5">
-        <v>0.556</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7078,10 +7081,10 @@
         <v>1.138</v>
       </c>
       <c r="I6">
-        <v>0.659</v>
+        <v>0.613</v>
       </c>
       <c r="J6">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7110,10 +7113,10 @@
         <v>1.65</v>
       </c>
       <c r="I7">
-        <v>0.9389999999999999</v>
+        <v>0.806</v>
       </c>
       <c r="J7">
-        <v>0.348</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7139,13 +7142,13 @@
         <v>0.06</v>
       </c>
       <c r="H8">
-        <v>1.11</v>
+        <v>1.118</v>
       </c>
       <c r="I8">
-        <v>2.066</v>
+        <v>1.773</v>
       </c>
       <c r="J8">
-        <v>0.039</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7174,10 +7177,10 @@
         <v>0.459</v>
       </c>
       <c r="I9">
-        <v>0.917</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="J9">
-        <v>0.359</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7206,10 +7209,10 @@
         <v>0.434</v>
       </c>
       <c r="I10">
-        <v>0.725</v>
+        <v>0.652</v>
       </c>
       <c r="J10">
-        <v>0.469</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7238,10 +7241,10 @@
         <v>-0.785</v>
       </c>
       <c r="I11">
-        <v>-1.266</v>
+        <v>-1.282</v>
       </c>
       <c r="J11">
-        <v>0.206</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7270,10 +7273,10 @@
         <v>-0.452</v>
       </c>
       <c r="I12">
-        <v>-0.698</v>
+        <v>-0.645</v>
       </c>
       <c r="J12">
-        <v>0.486</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7302,10 +7305,10 @@
         <v>-0.467</v>
       </c>
       <c r="I13">
-        <v>-0.718</v>
+        <v>-0.634</v>
       </c>
       <c r="J13">
-        <v>0.473</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7334,10 +7337,10 @@
         <v>-0.004</v>
       </c>
       <c r="I14">
-        <v>-0.364</v>
+        <v>-0.38</v>
       </c>
       <c r="J14">
-        <v>0.716</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7366,10 +7369,10 @@
         <v>-0</v>
       </c>
       <c r="I15">
-        <v>-0.031</v>
+        <v>-0.028</v>
       </c>
       <c r="J15">
-        <v>0.976</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7398,10 +7401,10 @@
         <v>-0.013</v>
       </c>
       <c r="I16">
-        <v>-1.144</v>
+        <v>-1.031</v>
       </c>
       <c r="J16">
-        <v>0.253</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7430,10 +7433,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="I17">
-        <v>0.757</v>
+        <v>0.707</v>
       </c>
       <c r="J17">
-        <v>0.449</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7462,10 +7465,10 @@
         <v>0.03</v>
       </c>
       <c r="I18">
-        <v>2.312</v>
+        <v>2.331</v>
       </c>
       <c r="J18">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7494,10 +7497,10 @@
         <v>0.024</v>
       </c>
       <c r="I19">
-        <v>1.75</v>
+        <v>1.542</v>
       </c>
       <c r="J19">
-        <v>0.08</v>
+        <v>0.123</v>
       </c>
     </row>
   </sheetData>
@@ -7590,10 +7593,10 @@
         <v>-1.17</v>
       </c>
       <c r="J2">
-        <v>-0.678</v>
+        <v>-0.555</v>
       </c>
       <c r="K2">
-        <v>0.498</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7625,10 +7628,10 @@
         <v>-1.146</v>
       </c>
       <c r="J3">
-        <v>-0.68</v>
+        <v>-0.669</v>
       </c>
       <c r="K3">
-        <v>0.497</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7660,10 +7663,10 @@
         <v>0.5629999999999999</v>
       </c>
       <c r="J4">
-        <v>0.29</v>
+        <v>0.266</v>
       </c>
       <c r="K4">
-        <v>0.772</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7695,10 +7698,10 @@
         <v>-0.338</v>
       </c>
       <c r="J5">
-        <v>-0.168</v>
+        <v>-0.157</v>
       </c>
       <c r="K5">
-        <v>0.866</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7730,10 +7733,10 @@
         <v>1.109</v>
       </c>
       <c r="J6">
-        <v>0.536</v>
+        <v>0.504</v>
       </c>
       <c r="K6">
-        <v>0.592</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7765,10 +7768,10 @@
         <v>2.941</v>
       </c>
       <c r="J7">
-        <v>1.399</v>
+        <v>1.239</v>
       </c>
       <c r="K7">
-        <v>0.162</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7797,13 +7800,13 @@
         <v>0.042</v>
       </c>
       <c r="I8">
-        <v>1.005</v>
+        <v>1.007</v>
       </c>
       <c r="J8">
-        <v>1.561</v>
+        <v>1.363</v>
       </c>
       <c r="K8">
-        <v>0.119</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7835,10 +7838,10 @@
         <v>0.607</v>
       </c>
       <c r="J9">
-        <v>1.013</v>
+        <v>0.987</v>
       </c>
       <c r="K9">
-        <v>0.311</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7870,10 +7873,10 @@
         <v>0.007</v>
       </c>
       <c r="J10">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K10">
-        <v>0.992</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7905,10 +7908,10 @@
         <v>-0.48</v>
       </c>
       <c r="J11">
-        <v>-0.647</v>
+        <v>-0.638</v>
       </c>
       <c r="K11">
-        <v>0.518</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7940,10 +7943,10 @@
         <v>-0.388</v>
       </c>
       <c r="J12">
-        <v>-0.5</v>
+        <v>-0.484</v>
       </c>
       <c r="K12">
-        <v>0.617</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7975,10 +7978,10 @@
         <v>-1.018</v>
       </c>
       <c r="J13">
-        <v>-1.31</v>
+        <v>-1.216</v>
       </c>
       <c r="K13">
-        <v>0.191</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8010,10 +8013,10 @@
         <v>-0.008</v>
       </c>
       <c r="J14">
-        <v>-0.673</v>
+        <v>-0.8179999999999999</v>
       </c>
       <c r="K14">
-        <v>0.501</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8045,10 +8048,10 @@
         <v>-0.006</v>
       </c>
       <c r="J15">
-        <v>-0.451</v>
+        <v>-0.454</v>
       </c>
       <c r="K15">
-        <v>0.652</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8080,10 +8083,10 @@
         <v>-0.015</v>
       </c>
       <c r="J16">
-        <v>-1.143</v>
+        <v>-1.082</v>
       </c>
       <c r="K16">
-        <v>0.254</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8115,10 +8118,10 @@
         <v>0.02</v>
       </c>
       <c r="J17">
-        <v>1.365</v>
+        <v>1.225</v>
       </c>
       <c r="K17">
-        <v>0.173</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8150,10 +8153,10 @@
         <v>0.03</v>
       </c>
       <c r="J18">
-        <v>1.984</v>
+        <v>1.985</v>
       </c>
       <c r="K18">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8185,10 +8188,10 @@
         <v>0.016</v>
       </c>
       <c r="J19">
-        <v>0.963</v>
+        <v>0.914</v>
       </c>
       <c r="K19">
-        <v>0.336</v>
+        <v>0.361</v>
       </c>
     </row>
   </sheetData>
@@ -8281,10 +8284,10 @@
         <v>-0.338</v>
       </c>
       <c r="J2">
-        <v>-0.168</v>
+        <v>-0.134</v>
       </c>
       <c r="K2">
-        <v>0.867</v>
+        <v>0.893</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8316,10 +8319,10 @@
         <v>0.116</v>
       </c>
       <c r="J3">
-        <v>0.059</v>
+        <v>0.061</v>
       </c>
       <c r="K3">
-        <v>0.953</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8351,10 +8354,10 @@
         <v>1.883</v>
       </c>
       <c r="J4">
-        <v>0.833</v>
+        <v>0.797</v>
       </c>
       <c r="K4">
-        <v>0.405</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8386,10 +8389,10 @@
         <v>0.613</v>
       </c>
       <c r="J5">
-        <v>0.262</v>
+        <v>0.284</v>
       </c>
       <c r="K5">
-        <v>0.793</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8421,10 +8424,10 @@
         <v>0.2</v>
       </c>
       <c r="J6">
-        <v>0.083</v>
+        <v>0.089</v>
       </c>
       <c r="K6">
-        <v>0.9340000000000001</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8456,10 +8459,10 @@
         <v>1.974</v>
       </c>
       <c r="J7">
-        <v>0.805</v>
+        <v>0.707</v>
       </c>
       <c r="K7">
-        <v>0.421</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8479,7 +8482,7 @@
         <v>1147</v>
       </c>
       <c r="F8" t="s">
-        <v>440</v>
+        <v>1165</v>
       </c>
       <c r="G8">
         <v>1092</v>
@@ -8488,13 +8491,13 @@
         <v>0.031</v>
       </c>
       <c r="I8">
-        <v>1.025</v>
+        <v>1.027</v>
       </c>
       <c r="J8">
-        <v>1.365</v>
+        <v>1.153</v>
       </c>
       <c r="K8">
-        <v>0.173</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8514,7 +8517,7 @@
         <v>1148</v>
       </c>
       <c r="F9" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G9">
         <v>1092</v>
@@ -8526,10 +8529,10 @@
         <v>0.092</v>
       </c>
       <c r="J9">
-        <v>0.131</v>
+        <v>0.133</v>
       </c>
       <c r="K9">
-        <v>0.896</v>
+        <v>0.894</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8549,7 +8552,7 @@
         <v>1149</v>
       </c>
       <c r="F10" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="G10">
         <v>1092</v>
@@ -8561,10 +8564,10 @@
         <v>-0.393</v>
       </c>
       <c r="J10">
-        <v>-0.47</v>
+        <v>-0.435</v>
       </c>
       <c r="K10">
-        <v>0.639</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8584,7 +8587,7 @@
         <v>1150</v>
       </c>
       <c r="F11" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="G11">
         <v>1092</v>
@@ -8596,10 +8599,10 @@
         <v>-0.652</v>
       </c>
       <c r="J11">
-        <v>-0.753</v>
+        <v>-0.877</v>
       </c>
       <c r="K11">
-        <v>0.452</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8619,7 +8622,7 @@
         <v>1151</v>
       </c>
       <c r="F12" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="G12">
         <v>1092</v>
@@ -8631,10 +8634,10 @@
         <v>-0.283</v>
       </c>
       <c r="J12">
-        <v>-0.312</v>
+        <v>-0.301</v>
       </c>
       <c r="K12">
-        <v>0.755</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8654,7 +8657,7 @@
         <v>1152</v>
       </c>
       <c r="F13" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="G13">
         <v>1092</v>
@@ -8666,10 +8669,10 @@
         <v>-0.533</v>
       </c>
       <c r="J13">
-        <v>-0.587</v>
+        <v>-0.519</v>
       </c>
       <c r="K13">
-        <v>0.5570000000000001</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8689,7 +8692,7 @@
         <v>1153</v>
       </c>
       <c r="F14" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="G14">
         <v>1092</v>
@@ -8701,10 +8704,10 @@
         <v>-0.005</v>
       </c>
       <c r="J14">
-        <v>-0.334</v>
+        <v>-0.398</v>
       </c>
       <c r="K14">
-        <v>0.738</v>
+        <v>0.6909999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8724,7 +8727,7 @@
         <v>1154</v>
       </c>
       <c r="F15" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="G15">
         <v>1092</v>
@@ -8736,10 +8739,10 @@
         <v>0.006</v>
       </c>
       <c r="J15">
-        <v>0.419</v>
+        <v>0.437</v>
       </c>
       <c r="K15">
-        <v>0.675</v>
+        <v>0.662</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8759,7 +8762,7 @@
         <v>1155</v>
       </c>
       <c r="F16" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="G16">
         <v>1092</v>
@@ -8771,10 +8774,10 @@
         <v>-0.019</v>
       </c>
       <c r="J16">
-        <v>-1.245</v>
+        <v>-1.165</v>
       </c>
       <c r="K16">
-        <v>0.214</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8794,7 +8797,7 @@
         <v>1156</v>
       </c>
       <c r="F17" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="G17">
         <v>1092</v>
@@ -8806,10 +8809,10 @@
         <v>0.021</v>
       </c>
       <c r="J17">
-        <v>1.18</v>
+        <v>1.135</v>
       </c>
       <c r="K17">
-        <v>0.238</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8829,7 +8832,7 @@
         <v>1157</v>
       </c>
       <c r="F18" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="G18">
         <v>1092</v>
@@ -8841,10 +8844,10 @@
         <v>0.033</v>
       </c>
       <c r="J18">
-        <v>1.837</v>
+        <v>1.889</v>
       </c>
       <c r="K18">
-        <v>0.066</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8864,7 +8867,7 @@
         <v>1158</v>
       </c>
       <c r="F19" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="G19">
         <v>1092</v>
@@ -8876,10 +8879,10 @@
         <v>0.005</v>
       </c>
       <c r="J19">
-        <v>0.281</v>
+        <v>0.277</v>
       </c>
       <c r="K19">
-        <v>0.778</v>
+        <v>0.782</v>
       </c>
     </row>
   </sheetData>
@@ -8952,22 +8955,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D2" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="E2" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="F2" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="G2" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H2">
         <v>1092</v>
@@ -8979,10 +8982,10 @@
         <v>0.156</v>
       </c>
       <c r="K2">
-        <v>0.067</v>
+        <v>0.054</v>
       </c>
       <c r="L2">
-        <v>0.946</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8990,22 +8993,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C3" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D3" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="E3" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="F3" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="G3" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H3">
         <v>1092</v>
@@ -9017,10 +9020,10 @@
         <v>0.278</v>
       </c>
       <c r="K3">
-        <v>0.123</v>
+        <v>0.12</v>
       </c>
       <c r="L3">
-        <v>0.902</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -9028,22 +9031,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C4" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D4" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="E4" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="F4" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="G4" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H4">
         <v>1092</v>
@@ -9055,10 +9058,10 @@
         <v>0.871</v>
       </c>
       <c r="K4">
-        <v>0.335</v>
+        <v>0.344</v>
       </c>
       <c r="L4">
-        <v>0.738</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -9066,22 +9069,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C5" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D5" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="E5" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="F5" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="G5" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H5">
         <v>1092</v>
@@ -9093,10 +9096,10 @@
         <v>0.666</v>
       </c>
       <c r="K5">
-        <v>0.247</v>
+        <v>0.249</v>
       </c>
       <c r="L5">
-        <v>0.805</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -9104,22 +9107,22 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C6" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D6" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="E6" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="F6" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="G6" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="H6">
         <v>1092</v>
@@ -9131,10 +9134,10 @@
         <v>-0.209</v>
       </c>
       <c r="K6">
-        <v>-0.075</v>
+        <v>-0.077</v>
       </c>
       <c r="L6">
-        <v>0.9399999999999999</v>
+        <v>0.9379999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -9142,22 +9145,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C7" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D7" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="E7" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="F7" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="G7" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="H7">
         <v>1092</v>
@@ -9169,10 +9172,10 @@
         <v>1.132</v>
       </c>
       <c r="K7">
-        <v>0.401</v>
+        <v>0.353</v>
       </c>
       <c r="L7">
-        <v>0.6879999999999999</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -9180,22 +9183,22 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C8" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D8" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="E8" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="F8" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="G8" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="H8">
         <v>1092</v>
@@ -9204,13 +9207,13 @@
         <v>0.024</v>
       </c>
       <c r="J8">
-        <v>0.925</v>
+        <v>0.928</v>
       </c>
       <c r="K8">
-        <v>1.071</v>
+        <v>0.891</v>
       </c>
       <c r="L8">
-        <v>0.284</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -9218,19 +9221,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C9" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D9" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="E9" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="F9" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
@@ -9256,22 +9259,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C10" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D10" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="E10" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="F10" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="G10" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H10">
         <v>1092</v>
@@ -9294,22 +9297,22 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C11" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D11" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="E11" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="F11" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="G11" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H11">
         <v>1092</v>
@@ -9321,10 +9324,10 @@
         <v>-0.632</v>
       </c>
       <c r="K11">
-        <v>-0.634</v>
+        <v>-0.6820000000000001</v>
       </c>
       <c r="L11">
-        <v>0.526</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -9332,19 +9335,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C12" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D12" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="E12" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="F12" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="G12" t="s">
         <v>85</v>
@@ -9359,10 +9362,10 @@
         <v>-0.236</v>
       </c>
       <c r="K12">
-        <v>-0.226</v>
+        <v>-0.219</v>
       </c>
       <c r="L12">
-        <v>0.821</v>
+        <v>0.827</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -9370,22 +9373,22 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C13" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D13" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="E13" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="F13" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="G13" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H13">
         <v>1092</v>
@@ -9397,10 +9400,10 @@
         <v>-0.156</v>
       </c>
       <c r="K13">
-        <v>-0.149</v>
+        <v>-0.129</v>
       </c>
       <c r="L13">
-        <v>0.881</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -9408,22 +9411,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C14" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D14" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="E14" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="F14" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="G14" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H14">
         <v>1092</v>
@@ -9435,10 +9438,10 @@
         <v>-0.003</v>
       </c>
       <c r="K14">
-        <v>-0.158</v>
+        <v>-0.171</v>
       </c>
       <c r="L14">
-        <v>0.874</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -9446,22 +9449,22 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C15" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D15" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="E15" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="F15" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="G15" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H15">
         <v>1092</v>
@@ -9473,10 +9476,10 @@
         <v>0.006</v>
       </c>
       <c r="K15">
-        <v>0.335</v>
+        <v>0.376</v>
       </c>
       <c r="L15">
-        <v>0.737</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -9484,22 +9487,22 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C16" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D16" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="E16" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="F16" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="G16" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H16">
         <v>1092</v>
@@ -9511,10 +9514,10 @@
         <v>-0.016</v>
       </c>
       <c r="K16">
-        <v>-0.908</v>
+        <v>-0.832</v>
       </c>
       <c r="L16">
-        <v>0.364</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -9522,22 +9525,22 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C17" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D17" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="E17" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="F17" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="G17" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="H17">
         <v>1092</v>
@@ -9549,10 +9552,10 @@
         <v>0.018</v>
       </c>
       <c r="K17">
-        <v>0.896</v>
+        <v>0.89</v>
       </c>
       <c r="L17">
-        <v>0.371</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -9560,22 +9563,22 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C18" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D18" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="E18" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="F18" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="G18" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H18">
         <v>1092</v>
@@ -9587,10 +9590,10 @@
         <v>0.026</v>
       </c>
       <c r="K18">
-        <v>1.267</v>
+        <v>1.331</v>
       </c>
       <c r="L18">
-        <v>0.205</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -9598,22 +9601,22 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C19" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D19" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="E19" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="F19" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="G19" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H19">
         <v>1092</v>
@@ -9625,10 +9628,10 @@
         <v>-0.003</v>
       </c>
       <c r="K19">
-        <v>-0.137</v>
+        <v>-0.143</v>
       </c>
       <c r="L19">
-        <v>0.891</v>
+        <v>0.886</v>
       </c>
     </row>
   </sheetData>
@@ -9714,10 +9717,10 @@
         <v>0.761</v>
       </c>
       <c r="I2">
-        <v>0.399</v>
+        <v>0.342</v>
       </c>
       <c r="J2">
-        <v>0.6899999999999999</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9746,10 +9749,10 @@
         <v>2.028</v>
       </c>
       <c r="I3">
-        <v>1.07</v>
+        <v>0.976</v>
       </c>
       <c r="J3">
-        <v>0.285</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9778,10 +9781,10 @@
         <v>0.431</v>
       </c>
       <c r="I4">
-        <v>0.192</v>
+        <v>0.184</v>
       </c>
       <c r="J4">
-        <v>0.848</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9810,10 +9813,10 @@
         <v>0.542</v>
       </c>
       <c r="I5">
-        <v>0.232</v>
+        <v>0.231</v>
       </c>
       <c r="J5">
-        <v>0.8169999999999999</v>
+        <v>0.8179999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9842,10 +9845,10 @@
         <v>2.358</v>
       </c>
       <c r="I6">
-        <v>0.991</v>
+        <v>1.02</v>
       </c>
       <c r="J6">
-        <v>0.322</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9874,10 +9877,10 @@
         <v>3.805</v>
       </c>
       <c r="I7">
-        <v>1.58</v>
+        <v>1.626</v>
       </c>
       <c r="J7">
-        <v>0.114</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9903,13 +9906,13 @@
         <v>0.027</v>
       </c>
       <c r="H8">
-        <v>-0.352</v>
+        <v>-0.338</v>
       </c>
       <c r="I8">
-        <v>-0.475</v>
+        <v>-0.458</v>
       </c>
       <c r="J8">
-        <v>0.635</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9938,10 +9941,10 @@
         <v>-0.233</v>
       </c>
       <c r="I9">
-        <v>-0.315</v>
+        <v>-0.309</v>
       </c>
       <c r="J9">
-        <v>0.753</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9970,10 +9973,10 @@
         <v>-0.278</v>
       </c>
       <c r="I10">
-        <v>-0.324</v>
+        <v>-0.323</v>
       </c>
       <c r="J10">
-        <v>0.746</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10002,10 +10005,10 @@
         <v>-0.593</v>
       </c>
       <c r="I11">
-        <v>-0.67</v>
+        <v>-0.66</v>
       </c>
       <c r="J11">
-        <v>0.503</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10034,10 +10037,10 @@
         <v>-0.642</v>
       </c>
       <c r="I12">
-        <v>-0.713</v>
+        <v>-0.702</v>
       </c>
       <c r="J12">
-        <v>0.476</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10066,10 +10069,10 @@
         <v>-1.341</v>
       </c>
       <c r="I13">
-        <v>-1.487</v>
+        <v>-1.505</v>
       </c>
       <c r="J13">
-        <v>0.137</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10098,10 +10101,10 @@
         <v>-0.007</v>
       </c>
       <c r="I14">
-        <v>-0.486</v>
+        <v>-0.461</v>
       </c>
       <c r="J14">
-        <v>0.627</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10130,10 +10133,10 @@
         <v>0.007</v>
       </c>
       <c r="I15">
-        <v>0.461</v>
+        <v>0.442</v>
       </c>
       <c r="J15">
-        <v>0.645</v>
+        <v>0.658</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10162,10 +10165,10 @@
         <v>0.015</v>
       </c>
       <c r="I16">
-        <v>0.923</v>
+        <v>0.92</v>
       </c>
       <c r="J16">
-        <v>0.356</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10194,10 +10197,10 @@
         <v>0.021</v>
       </c>
       <c r="I17">
-        <v>1.231</v>
+        <v>1.261</v>
       </c>
       <c r="J17">
-        <v>0.219</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10226,10 +10229,10 @@
         <v>0.022</v>
       </c>
       <c r="I18">
-        <v>1.252</v>
+        <v>1.204</v>
       </c>
       <c r="J18">
-        <v>0.211</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10258,10 +10261,10 @@
         <v>0.005</v>
       </c>
       <c r="I19">
-        <v>0.253</v>
+        <v>0.229</v>
       </c>
       <c r="J19">
-        <v>0.8</v>
+        <v>0.819</v>
       </c>
     </row>
   </sheetData>
@@ -10347,10 +10350,10 @@
         <v>2.258</v>
       </c>
       <c r="I2">
-        <v>1.039</v>
+        <v>0.87</v>
       </c>
       <c r="J2">
-        <v>0.299</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10379,10 +10382,10 @@
         <v>2.666</v>
       </c>
       <c r="I3">
-        <v>1.233</v>
+        <v>1.118</v>
       </c>
       <c r="J3">
-        <v>0.218</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10411,10 +10414,10 @@
         <v>2.216</v>
       </c>
       <c r="I4">
-        <v>0.864</v>
+        <v>0.844</v>
       </c>
       <c r="J4">
-        <v>0.388</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10443,10 +10446,10 @@
         <v>1.069</v>
       </c>
       <c r="I5">
-        <v>0.4</v>
+        <v>0.409</v>
       </c>
       <c r="J5">
-        <v>0.6889999999999999</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10475,10 +10478,10 @@
         <v>1.553</v>
       </c>
       <c r="I6">
-        <v>0.572</v>
+        <v>0.598</v>
       </c>
       <c r="J6">
-        <v>0.5669999999999999</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10507,10 +10510,10 @@
         <v>3.414</v>
       </c>
       <c r="I7">
-        <v>1.242</v>
+        <v>1.101</v>
       </c>
       <c r="J7">
-        <v>0.214</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10536,13 +10539,13 @@
         <v>0.021</v>
       </c>
       <c r="H8">
-        <v>-0.625</v>
+        <v>-0.604</v>
       </c>
       <c r="I8">
-        <v>-0.74</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="J8">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10571,10 +10574,10 @@
         <v>-0.535</v>
       </c>
       <c r="I9">
-        <v>-0.634</v>
+        <v>-0.579</v>
       </c>
       <c r="J9">
-        <v>0.526</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10603,10 +10606,10 @@
         <v>-0.834</v>
       </c>
       <c r="I10">
-        <v>-0.852</v>
+        <v>-0.871</v>
       </c>
       <c r="J10">
-        <v>0.394</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10635,10 +10638,10 @@
         <v>-0.473</v>
       </c>
       <c r="I11">
-        <v>-0.468</v>
+        <v>-0.48</v>
       </c>
       <c r="J11">
-        <v>0.64</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10667,10 +10670,10 @@
         <v>-0.602</v>
       </c>
       <c r="I12">
-        <v>-0.586</v>
+        <v>-0.573</v>
       </c>
       <c r="J12">
-        <v>0.5580000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10699,10 +10702,10 @@
         <v>-1.356</v>
       </c>
       <c r="I13">
-        <v>-1.319</v>
+        <v>-1.167</v>
       </c>
       <c r="J13">
-        <v>0.188</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10731,10 +10734,10 @@
         <v>-0.004</v>
       </c>
       <c r="I14">
-        <v>-0.248</v>
+        <v>-0.254</v>
       </c>
       <c r="J14">
-        <v>0.804</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10763,10 +10766,10 @@
         <v>0.017</v>
       </c>
       <c r="I15">
-        <v>1.025</v>
+        <v>1.063</v>
       </c>
       <c r="J15">
-        <v>0.306</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10795,10 +10798,10 @@
         <v>0.016</v>
       </c>
       <c r="I16">
-        <v>0.88</v>
+        <v>0.915</v>
       </c>
       <c r="J16">
-        <v>0.379</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10827,10 +10830,10 @@
         <v>0.027</v>
       </c>
       <c r="I17">
-        <v>1.381</v>
+        <v>1.341</v>
       </c>
       <c r="J17">
-        <v>0.168</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10859,10 +10862,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="I18">
-        <v>0.446</v>
+        <v>0.452</v>
       </c>
       <c r="J18">
-        <v>0.656</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10980,10 +10983,10 @@
         <v>3.322</v>
       </c>
       <c r="I2">
-        <v>1.343</v>
+        <v>1.201</v>
       </c>
       <c r="J2">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11012,10 +11015,10 @@
         <v>2.395</v>
       </c>
       <c r="I3">
-        <v>0.973</v>
+        <v>0.898</v>
       </c>
       <c r="J3">
-        <v>0.331</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11044,10 +11047,10 @@
         <v>4.68</v>
       </c>
       <c r="I4">
-        <v>1.603</v>
+        <v>1.539</v>
       </c>
       <c r="J4">
-        <v>0.109</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11076,10 +11079,10 @@
         <v>1.624</v>
       </c>
       <c r="I5">
-        <v>0.534</v>
+        <v>0.514</v>
       </c>
       <c r="J5">
-        <v>0.593</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11108,10 +11111,10 @@
         <v>2.822</v>
       </c>
       <c r="I6">
-        <v>0.913</v>
+        <v>0.905</v>
       </c>
       <c r="J6">
-        <v>0.361</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11140,10 +11143,10 @@
         <v>4.22</v>
       </c>
       <c r="I7">
-        <v>1.349</v>
+        <v>1.143</v>
       </c>
       <c r="J7">
-        <v>0.178</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11169,13 +11172,13 @@
         <v>0.016</v>
       </c>
       <c r="H8">
-        <v>-1.011</v>
+        <v>-0.98</v>
       </c>
       <c r="I8">
-        <v>-1.051</v>
+        <v>-1.04</v>
       </c>
       <c r="J8">
-        <v>0.293</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11204,10 +11207,10 @@
         <v>-0.36</v>
       </c>
       <c r="I9">
-        <v>-0.375</v>
+        <v>-0.347</v>
       </c>
       <c r="J9">
-        <v>0.708</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11236,10 +11239,10 @@
         <v>-1.922</v>
       </c>
       <c r="I10">
-        <v>-1.727</v>
+        <v>-1.658</v>
       </c>
       <c r="J10">
-        <v>0.08400000000000001</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11268,10 +11271,10 @@
         <v>-0.775</v>
       </c>
       <c r="I11">
-        <v>-0.674</v>
+        <v>-0.638</v>
       </c>
       <c r="J11">
-        <v>0.5</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11300,10 +11303,10 @@
         <v>-1.21</v>
       </c>
       <c r="I12">
-        <v>-1.034</v>
+        <v>-1.006</v>
       </c>
       <c r="J12">
-        <v>0.301</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11332,10 +11335,10 @@
         <v>-1.498</v>
       </c>
       <c r="I13">
-        <v>-1.279</v>
+        <v>-1.05</v>
       </c>
       <c r="J13">
-        <v>0.201</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11364,10 +11367,10 @@
         <v>-0.02</v>
       </c>
       <c r="I14">
-        <v>-1.11</v>
+        <v>-1.09</v>
       </c>
       <c r="J14">
-        <v>0.267</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11396,10 +11399,10 @@
         <v>0.003</v>
       </c>
       <c r="I15">
-        <v>0.148</v>
+        <v>0.143</v>
       </c>
       <c r="J15">
-        <v>0.882</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11428,10 +11431,10 @@
         <v>0.002</v>
       </c>
       <c r="I16">
-        <v>0.077</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J16">
-        <v>0.9389999999999999</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11460,10 +11463,10 @@
         <v>0.015</v>
       </c>
       <c r="I17">
-        <v>0.695</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="J17">
-        <v>0.487</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11492,10 +11495,10 @@
         <v>0.003</v>
       </c>
       <c r="I18">
-        <v>0.128</v>
+        <v>0.124</v>
       </c>
       <c r="J18">
-        <v>0.898</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11524,10 +11527,10 @@
         <v>-0.011</v>
       </c>
       <c r="I19">
-        <v>-0.476</v>
+        <v>-0.492</v>
       </c>
       <c r="J19">
-        <v>0.634</v>
+        <v>0.623</v>
       </c>
     </row>
   </sheetData>
@@ -11613,10 +11616,10 @@
         <v>-0.78</v>
       </c>
       <c r="I2">
-        <v>-0.529</v>
+        <v>-0.49</v>
       </c>
       <c r="J2">
-        <v>0.597</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11645,10 +11648,10 @@
         <v>0.156</v>
       </c>
       <c r="I3">
-        <v>0.107</v>
+        <v>0.104</v>
       </c>
       <c r="J3">
-        <v>0.915</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11677,10 +11680,10 @@
         <v>0.146</v>
       </c>
       <c r="I4">
-        <v>0.08599999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="J4">
-        <v>0.9320000000000001</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11741,10 +11744,10 @@
         <v>-0.734</v>
       </c>
       <c r="I6">
-        <v>-0.403</v>
+        <v>-0.411</v>
       </c>
       <c r="J6">
-        <v>0.6870000000000001</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11773,10 +11776,10 @@
         <v>-0.71</v>
       </c>
       <c r="I7">
-        <v>-0.383</v>
+        <v>-0.385</v>
       </c>
       <c r="J7">
-        <v>0.702</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11802,13 +11805,13 @@
         <v>0.048</v>
       </c>
       <c r="H8">
-        <v>0.363</v>
+        <v>0.376</v>
       </c>
       <c r="I8">
-        <v>0.641</v>
+        <v>0.633</v>
       </c>
       <c r="J8">
-        <v>0.522</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11837,10 +11840,10 @@
         <v>-0.079</v>
       </c>
       <c r="I9">
-        <v>-0.143</v>
+        <v>-0.152</v>
       </c>
       <c r="J9">
-        <v>0.887</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11869,10 +11872,10 @@
         <v>-0.525</v>
       </c>
       <c r="I10">
-        <v>-0.8090000000000001</v>
+        <v>-0.779</v>
       </c>
       <c r="J10">
-        <v>0.419</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11901,10 +11904,10 @@
         <v>-0.441</v>
       </c>
       <c r="I11">
-        <v>-0.656</v>
+        <v>-0.6889999999999999</v>
       </c>
       <c r="J11">
-        <v>0.512</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11933,10 +11936,10 @@
         <v>0.383</v>
       </c>
       <c r="I12">
-        <v>0.554</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="J12">
-        <v>0.58</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11965,10 +11968,10 @@
         <v>0.23</v>
       </c>
       <c r="I13">
-        <v>0.33</v>
+        <v>0.342</v>
       </c>
       <c r="J13">
-        <v>0.741</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11997,10 +12000,10 @@
         <v>-0.01</v>
       </c>
       <c r="I14">
-        <v>-0.886</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="J14">
-        <v>0.376</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12029,10 +12032,10 @@
         <v>-0.004</v>
       </c>
       <c r="I15">
-        <v>-0.379</v>
+        <v>-0.338</v>
       </c>
       <c r="J15">
-        <v>0.705</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12061,10 +12064,10 @@
         <v>0.006</v>
       </c>
       <c r="I16">
-        <v>0.526</v>
+        <v>0.547</v>
       </c>
       <c r="J16">
-        <v>0.599</v>
+        <v>0.584</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12093,10 +12096,10 @@
         <v>0.007</v>
       </c>
       <c r="I17">
-        <v>0.538</v>
+        <v>0.573</v>
       </c>
       <c r="J17">
-        <v>0.59</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12125,10 +12128,10 @@
         <v>0.022</v>
       </c>
       <c r="I18">
-        <v>1.605</v>
+        <v>1.413</v>
       </c>
       <c r="J18">
-        <v>0.109</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12157,10 +12160,10 @@
         <v>0.023</v>
       </c>
       <c r="I19">
-        <v>1.652</v>
+        <v>1.723</v>
       </c>
       <c r="J19">
-        <v>0.099</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -12246,10 +12249,10 @@
         <v>-1.26</v>
       </c>
       <c r="I2">
-        <v>-0.701</v>
+        <v>-0.619</v>
       </c>
       <c r="J2">
-        <v>0.484</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12278,10 +12281,10 @@
         <v>-0.244</v>
       </c>
       <c r="I3">
-        <v>-0.137</v>
+        <v>-0.133</v>
       </c>
       <c r="J3">
-        <v>0.891</v>
+        <v>0.894</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12342,10 +12345,10 @@
         <v>-1.697</v>
       </c>
       <c r="I5">
-        <v>-0.78</v>
+        <v>-0.773</v>
       </c>
       <c r="J5">
-        <v>0.435</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12374,10 +12377,10 @@
         <v>-0.742</v>
       </c>
       <c r="I6">
-        <v>-0.333</v>
+        <v>-0.338</v>
       </c>
       <c r="J6">
-        <v>0.739</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12406,7 +12409,7 @@
         <v>0.063</v>
       </c>
       <c r="I7">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="J7">
         <v>0.978</v>
@@ -12435,13 +12438,13 @@
         <v>0.033</v>
       </c>
       <c r="H8">
-        <v>0.604</v>
+        <v>0.617</v>
       </c>
       <c r="I8">
-        <v>0.873</v>
+        <v>0.91</v>
       </c>
       <c r="J8">
-        <v>0.383</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12470,10 +12473,10 @@
         <v>0.417</v>
       </c>
       <c r="I9">
-        <v>0.614</v>
+        <v>0.635</v>
       </c>
       <c r="J9">
-        <v>0.539</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12505,7 +12508,7 @@
         <v>-0.481</v>
       </c>
       <c r="J10">
-        <v>0.631</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12534,10 +12537,10 @@
         <v>0.121</v>
       </c>
       <c r="I11">
-        <v>0.148</v>
+        <v>0.159</v>
       </c>
       <c r="J11">
-        <v>0.882</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12566,10 +12569,10 @@
         <v>0.215</v>
       </c>
       <c r="I12">
-        <v>0.255</v>
+        <v>0.26</v>
       </c>
       <c r="J12">
-        <v>0.799</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12598,10 +12601,10 @@
         <v>-0.152</v>
       </c>
       <c r="I13">
-        <v>-0.178</v>
+        <v>-0.179</v>
       </c>
       <c r="J13">
-        <v>0.859</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12630,10 +12633,10 @@
         <v>-0.008</v>
       </c>
       <c r="I14">
-        <v>-0.597</v>
+        <v>-0.572</v>
       </c>
       <c r="J14">
-        <v>0.551</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12662,10 +12665,10 @@
         <v>-0.008</v>
       </c>
       <c r="I15">
-        <v>-0.573</v>
+        <v>-0.598</v>
       </c>
       <c r="J15">
-        <v>0.5669999999999999</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12694,10 +12697,10 @@
         <v>0.006</v>
       </c>
       <c r="I16">
-        <v>0.429</v>
+        <v>0.463</v>
       </c>
       <c r="J16">
-        <v>0.668</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12726,10 +12729,10 @@
         <v>0.014</v>
       </c>
       <c r="I17">
-        <v>0.91</v>
+        <v>0.901</v>
       </c>
       <c r="J17">
-        <v>0.363</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12758,10 +12761,10 @@
         <v>0.028</v>
       </c>
       <c r="I18">
-        <v>1.725</v>
+        <v>1.64</v>
       </c>
       <c r="J18">
-        <v>0.08500000000000001</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12790,10 +12793,10 @@
         <v>0.026</v>
       </c>
       <c r="I19">
-        <v>1.554</v>
+        <v>1.617</v>
       </c>
       <c r="J19">
-        <v>0.12</v>
+        <v>0.106</v>
       </c>
     </row>
   </sheetData>
@@ -12879,10 +12882,10 @@
         <v>-0.848</v>
       </c>
       <c r="I2">
-        <v>-0.412</v>
+        <v>-0.35</v>
       </c>
       <c r="J2">
-        <v>0.68</v>
+        <v>0.727</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12911,10 +12914,10 @@
         <v>1.105</v>
       </c>
       <c r="I3">
-        <v>0.543</v>
+        <v>0.514</v>
       </c>
       <c r="J3">
-        <v>0.587</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12943,10 +12946,10 @@
         <v>1.452</v>
       </c>
       <c r="I4">
-        <v>0.612</v>
+        <v>0.57</v>
       </c>
       <c r="J4">
-        <v>0.541</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12975,10 +12978,10 @@
         <v>-1.685</v>
       </c>
       <c r="I5">
-        <v>-0.677</v>
+        <v>-0.728</v>
       </c>
       <c r="J5">
-        <v>0.498</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -13007,10 +13010,10 @@
         <v>-1.489</v>
       </c>
       <c r="I6">
-        <v>-0.585</v>
+        <v>-0.607</v>
       </c>
       <c r="J6">
-        <v>0.5580000000000001</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13039,10 +13042,10 @@
         <v>-1.77</v>
       </c>
       <c r="I7">
-        <v>-0.6840000000000001</v>
+        <v>-0.613</v>
       </c>
       <c r="J7">
-        <v>0.494</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13068,13 +13071,13 @@
         <v>0.025</v>
       </c>
       <c r="H8">
-        <v>0.679</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="I8">
-        <v>0.857</v>
+        <v>0.855</v>
       </c>
       <c r="J8">
-        <v>0.392</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -13103,10 +13106,10 @@
         <v>-0.094</v>
       </c>
       <c r="I9">
-        <v>-0.121</v>
+        <v>-0.118</v>
       </c>
       <c r="J9">
-        <v>0.904</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -13135,10 +13138,10 @@
         <v>-0.98</v>
       </c>
       <c r="I10">
-        <v>-1.083</v>
+        <v>-1.03</v>
       </c>
       <c r="J10">
-        <v>0.279</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -13167,10 +13170,10 @@
         <v>0.295</v>
       </c>
       <c r="I11">
-        <v>0.315</v>
+        <v>0.365</v>
       </c>
       <c r="J11">
-        <v>0.753</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -13199,10 +13202,10 @@
         <v>0.26</v>
       </c>
       <c r="I12">
-        <v>0.27</v>
+        <v>0.251</v>
       </c>
       <c r="J12">
-        <v>0.787</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -13231,10 +13234,10 @@
         <v>0.512</v>
       </c>
       <c r="I13">
-        <v>0.526</v>
+        <v>0.482</v>
       </c>
       <c r="J13">
-        <v>0.599</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -13263,10 +13266,10 @@
         <v>-0.007</v>
       </c>
       <c r="I14">
-        <v>-0.429</v>
+        <v>-0.438</v>
       </c>
       <c r="J14">
-        <v>0.668</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -13295,10 +13298,10 @@
         <v>-0.002</v>
       </c>
       <c r="I15">
-        <v>-0.115</v>
+        <v>-0.124</v>
       </c>
       <c r="J15">
-        <v>0.909</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -13327,10 +13330,10 @@
         <v>0.006</v>
       </c>
       <c r="I16">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="J16">
-        <v>0.726</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -13359,10 +13362,10 @@
         <v>0.018</v>
       </c>
       <c r="I17">
-        <v>1.007</v>
+        <v>0.96</v>
       </c>
       <c r="J17">
-        <v>0.314</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -13391,10 +13394,10 @@
         <v>0.023</v>
       </c>
       <c r="I18">
-        <v>1.196</v>
+        <v>1.132</v>
       </c>
       <c r="J18">
-        <v>0.232</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13423,10 +13426,10 @@
         <v>0.018</v>
       </c>
       <c r="I19">
-        <v>0.906</v>
+        <v>1.015</v>
       </c>
       <c r="J19">
-        <v>0.365</v>
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -13519,10 +13522,10 @@
         <v>-0.787</v>
       </c>
       <c r="J2">
-        <v>-0.334</v>
+        <v>-0.298</v>
       </c>
       <c r="K2">
-        <v>0.738</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -13554,10 +13557,10 @@
         <v>1.069</v>
       </c>
       <c r="J3">
-        <v>0.459</v>
+        <v>0.451</v>
       </c>
       <c r="K3">
-        <v>0.646</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -13589,10 +13592,10 @@
         <v>3.338</v>
       </c>
       <c r="J4">
-        <v>1.23</v>
+        <v>1.238</v>
       </c>
       <c r="K4">
-        <v>0.219</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -13624,10 +13627,10 @@
         <v>-1.854</v>
       </c>
       <c r="J5">
-        <v>-0.652</v>
+        <v>-0.6830000000000001</v>
       </c>
       <c r="K5">
-        <v>0.515</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -13659,10 +13662,10 @@
         <v>-0.631</v>
       </c>
       <c r="J6">
-        <v>-0.217</v>
+        <v>-0.24</v>
       </c>
       <c r="K6">
-        <v>0.828</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -13694,10 +13697,10 @@
         <v>-1.188</v>
       </c>
       <c r="J7">
-        <v>-0.401</v>
+        <v>-0.353</v>
       </c>
       <c r="K7">
-        <v>0.6889999999999999</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -13726,13 +13729,13 @@
         <v>0.019</v>
       </c>
       <c r="I8">
-        <v>0.794</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="J8">
-        <v>0.876</v>
+        <v>0.89</v>
       </c>
       <c r="K8">
-        <v>0.381</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13764,10 +13767,10 @@
         <v>-0.13</v>
       </c>
       <c r="J9">
-        <v>-0.146</v>
+        <v>-0.143</v>
       </c>
       <c r="K9">
-        <v>0.884</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13799,10 +13802,10 @@
         <v>-1.713</v>
       </c>
       <c r="J10">
-        <v>-1.657</v>
+        <v>-1.642</v>
       </c>
       <c r="K10">
-        <v>0.098</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13834,10 +13837,10 @@
         <v>0.299</v>
       </c>
       <c r="J11">
-        <v>0.279</v>
+        <v>0.311</v>
       </c>
       <c r="K11">
-        <v>0.781</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13869,10 +13872,10 @@
         <v>-0.192</v>
       </c>
       <c r="J12">
-        <v>-0.174</v>
+        <v>-0.177</v>
       </c>
       <c r="K12">
-        <v>0.862</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13904,10 +13907,10 @@
         <v>0.255</v>
       </c>
       <c r="J13">
-        <v>0.229</v>
+        <v>0.205</v>
       </c>
       <c r="K13">
-        <v>0.819</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13939,10 +13942,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="J14">
-        <v>-0.543</v>
+        <v>-0.5629999999999999</v>
       </c>
       <c r="K14">
-        <v>0.587</v>
+        <v>0.573</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13974,10 +13977,10 @@
         <v>-0.006</v>
       </c>
       <c r="J15">
-        <v>-0.347</v>
+        <v>-0.396</v>
       </c>
       <c r="K15">
-        <v>0.728</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -14009,10 +14012,10 @@
         <v>0.001</v>
       </c>
       <c r="J16">
-        <v>0.055</v>
+        <v>0.056</v>
       </c>
       <c r="K16">
-        <v>0.956</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -14044,10 +14047,10 @@
         <v>0.01</v>
       </c>
       <c r="J17">
-        <v>0.468</v>
+        <v>0.467</v>
       </c>
       <c r="K17">
-        <v>0.64</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -14079,10 +14082,10 @@
         <v>0.013</v>
       </c>
       <c r="J18">
-        <v>0.624</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K18">
-        <v>0.533</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -14114,10 +14117,10 @@
         <v>0.002</v>
       </c>
       <c r="J19">
-        <v>0.08</v>
+        <v>0.102</v>
       </c>
       <c r="K19">
-        <v>0.9360000000000001</v>
+        <v>0.918</v>
       </c>
     </row>
   </sheetData>
@@ -14203,10 +14206,10 @@
         <v>-1.22</v>
       </c>
       <c r="I2">
-        <v>-0.864</v>
+        <v>-0.799</v>
       </c>
       <c r="J2">
-        <v>0.388</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -14235,10 +14238,10 @@
         <v>-0.536</v>
       </c>
       <c r="I3">
-        <v>-0.384</v>
+        <v>-0.391</v>
       </c>
       <c r="J3">
-        <v>0.701</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14267,10 +14270,10 @@
         <v>-1.398</v>
       </c>
       <c r="I4">
-        <v>-0.859</v>
+        <v>-0.843</v>
       </c>
       <c r="J4">
-        <v>0.39</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -14299,10 +14302,10 @@
         <v>-0.8139999999999999</v>
       </c>
       <c r="I5">
-        <v>-0.48</v>
+        <v>-0.478</v>
       </c>
       <c r="J5">
-        <v>0.631</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -14331,10 +14334,10 @@
         <v>0.2</v>
       </c>
       <c r="I6">
-        <v>0.115</v>
+        <v>0.12</v>
       </c>
       <c r="J6">
-        <v>0.908</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -14363,10 +14366,10 @@
         <v>0.844</v>
       </c>
       <c r="I7">
-        <v>0.474</v>
+        <v>0.421</v>
       </c>
       <c r="J7">
-        <v>0.636</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -14392,13 +14395,13 @@
         <v>0.056</v>
       </c>
       <c r="H8">
-        <v>0.659</v>
+        <v>0.67</v>
       </c>
       <c r="I8">
-        <v>1.226</v>
+        <v>1.148</v>
       </c>
       <c r="J8">
-        <v>0.22</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14427,10 +14430,10 @@
         <v>0.076</v>
       </c>
       <c r="I9">
-        <v>0.146</v>
+        <v>0.154</v>
       </c>
       <c r="J9">
-        <v>0.884</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -14459,10 +14462,10 @@
         <v>0.277</v>
       </c>
       <c r="I10">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="J10">
-        <v>0.653</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14491,10 +14494,10 @@
         <v>-0.131</v>
       </c>
       <c r="I11">
-        <v>-0.207</v>
+        <v>-0.217</v>
       </c>
       <c r="J11">
-        <v>0.836</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -14555,10 +14558,10 @@
         <v>-0.186</v>
       </c>
       <c r="I13">
-        <v>-0.28</v>
+        <v>-0.243</v>
       </c>
       <c r="J13">
-        <v>0.78</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -14587,10 +14590,10 @@
         <v>0.001</v>
       </c>
       <c r="I14">
-        <v>0.137</v>
+        <v>0.15</v>
       </c>
       <c r="J14">
-        <v>0.891</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -14619,10 +14622,10 @@
         <v>0.003</v>
       </c>
       <c r="I15">
-        <v>0.264</v>
+        <v>0.253</v>
       </c>
       <c r="J15">
-        <v>0.792</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -14651,10 +14654,10 @@
         <v>-0.004</v>
       </c>
       <c r="I16">
-        <v>-0.316</v>
+        <v>-0.279</v>
       </c>
       <c r="J16">
-        <v>0.752</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14683,10 +14686,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="I17">
-        <v>0.754</v>
+        <v>0.694</v>
       </c>
       <c r="J17">
-        <v>0.451</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14715,10 +14718,10 @@
         <v>0.023</v>
       </c>
       <c r="I18">
-        <v>1.79</v>
+        <v>1.759</v>
       </c>
       <c r="J18">
-        <v>0.074</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14747,10 +14750,10 @@
         <v>0.025</v>
       </c>
       <c r="I19">
-        <v>1.858</v>
+        <v>1.755</v>
       </c>
       <c r="J19">
-        <v>0.063</v>
+        <v>0.079</v>
       </c>
     </row>
   </sheetData>
